--- a/라이센스 리셀러 - db.xlsx
+++ b/라이센스 리셀러 - db.xlsx
@@ -478,10 +478,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>토니, 차우(돈이 절실할 듯)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>css에 대해서 혼자서 칠 수 있는 애가 있나.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,6 +527,10 @@
   </si>
   <si>
     <t>해당 서비스로 발생한 순수익에서, 기여도만큼 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토니, 차우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,7 +888,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1288,7 +1288,7 @@
         <v>110</v>
       </c>
       <c r="S28" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="11:20" x14ac:dyDescent="0.3">
@@ -1296,10 +1296,10 @@
         <v>111</v>
       </c>
       <c r="S29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="11:20" x14ac:dyDescent="0.3">
@@ -1307,33 +1307,33 @@
         <v>112</v>
       </c>
       <c r="S30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="11:20" x14ac:dyDescent="0.3">
       <c r="K32" t="s">
+        <v>118</v>
+      </c>
+      <c r="L32" t="s">
         <v>119</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>120</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>121</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>122</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>123</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>124</v>
       </c>
-      <c r="Q32" t="s">
-        <v>125</v>
-      </c>
       <c r="S32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="11:19" x14ac:dyDescent="0.3">
@@ -1359,12 +1359,12 @@
         <v>20</v>
       </c>
       <c r="S33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/라이센스 리셀러 - db.xlsx
+++ b/라이센스 리셀러 - db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>기능목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,78 +455,6 @@
   </si>
   <si>
     <t>각 제조사에서 제공하는 상세 페이지를 그대로 따서 만들어도 될듯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영입순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>css에 대해서 혼자서 칠 수 있는 애가 있나.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리아는 손이 느린데..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai 기능을 활용해서, 서비스를 할 거라면.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퍼블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 서비스로 발생한 순수익에서, 기여도만큼 지급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토니, 차우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -913,19 +837,19 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -936,19 +860,19 @@
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -956,25 +880,25 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
         <v>49</v>
       </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -982,31 +906,31 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
         <v>21</v>
       </c>
-      <c r="O4" t="s">
-        <v>22</v>
-      </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -1014,357 +938,265 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" t="s">
-        <v>76</v>
-      </c>
       <c r="R8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S9" t="s">
         <v>79</v>
-      </c>
-      <c r="S9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
         <v>34</v>
       </c>
-      <c r="P10" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="P11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" t="s">
         <v>81</v>
       </c>
-      <c r="S10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>105</v>
-      </c>
-      <c r="R11" t="s">
-        <v>82</v>
-      </c>
       <c r="S11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="P17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="11:20" x14ac:dyDescent="0.3">
-      <c r="P17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="11:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
         <v>44</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N22" t="s">
         <v>42</v>
       </c>
-      <c r="P21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="11:20" x14ac:dyDescent="0.3">
-      <c r="K22" t="s">
-        <v>45</v>
-      </c>
-      <c r="N22" t="s">
-        <v>43</v>
-      </c>
       <c r="P22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>71</v>
+      </c>
+      <c r="R22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
         <v>62</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q23" t="s">
         <v>72</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R23" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="11:20" x14ac:dyDescent="0.3">
-      <c r="P23" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>73</v>
-      </c>
-      <c r="R23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="11:20" x14ac:dyDescent="0.3">
-      <c r="R27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="11:20" x14ac:dyDescent="0.3">
-      <c r="R28" t="s">
-        <v>110</v>
-      </c>
-      <c r="S28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="11:20" x14ac:dyDescent="0.3">
-      <c r="R29" t="s">
-        <v>111</v>
-      </c>
-      <c r="S29" t="s">
-        <v>115</v>
-      </c>
-      <c r="T29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="11:20" x14ac:dyDescent="0.3">
-      <c r="R30" t="s">
-        <v>112</v>
-      </c>
-      <c r="S30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="11:20" x14ac:dyDescent="0.3">
-      <c r="K32" t="s">
-        <v>118</v>
-      </c>
-      <c r="L32" t="s">
-        <v>119</v>
-      </c>
-      <c r="M32" t="s">
-        <v>120</v>
-      </c>
-      <c r="N32" t="s">
-        <v>121</v>
-      </c>
-      <c r="O32" t="s">
-        <v>122</v>
-      </c>
-      <c r="P32" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>124</v>
-      </c>
-      <c r="S32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="11:19" x14ac:dyDescent="0.3">
-      <c r="K33">
-        <v>20</v>
-      </c>
-      <c r="L33">
-        <v>20</v>
-      </c>
-      <c r="M33">
-        <v>10</v>
-      </c>
-      <c r="N33">
-        <v>10</v>
-      </c>
-      <c r="O33">
-        <v>10</v>
-      </c>
-      <c r="P33">
-        <v>10</v>
-      </c>
-      <c r="Q33">
-        <v>20</v>
-      </c>
-      <c r="S33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="11:19" x14ac:dyDescent="0.3">
-      <c r="K36" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/라이센스 리셀러 - db.xlsx
+++ b/라이센스 리셀러 - db.xlsx
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포인트기능, expire +1month. 한달치를 사면 2달이후, 1년치 사면 1년 1개월 이후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내가 가진 라이선스 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,6 +451,10 @@
   </si>
   <si>
     <t>각 제조사에서 제공하는 상세 페이지를 그대로 따서 만들어도 될듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트기능, expire 1years.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +812,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -834,22 +834,22 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -857,22 +857,22 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -880,323 +880,323 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" t="s">
-        <v>75</v>
-      </c>
       <c r="R8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R9" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" t="s">
         <v>78</v>
-      </c>
-      <c r="S9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" t="s">
         <v>103</v>
       </c>
-      <c r="Q11" t="s">
-        <v>104</v>
-      </c>
       <c r="R11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="N14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="P16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="11:18" x14ac:dyDescent="0.3">
       <c r="P17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="11:18" x14ac:dyDescent="0.3">
       <c r="K22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="11:18" x14ac:dyDescent="0.3">
       <c r="P23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/라이센스 리셀러 - db.xlsx
+++ b/라이센스 리셀러 - db.xlsx
@@ -809,393 +809,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
       <c r="J2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>98</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>98</v>
-      </c>
-      <c r="R4" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" t="s">
-        <v>93</v>
-      </c>
-      <c r="T4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>96</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>94</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>96</v>
-      </c>
-      <c r="R5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S5" t="s">
-        <v>94</v>
-      </c>
-      <c r="T5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>97</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>97</v>
-      </c>
-      <c r="R6" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" t="s">
-        <v>95</v>
-      </c>
-      <c r="T6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" t="s">
-        <v>58</v>
-      </c>
-      <c r="S7" t="s">
-        <v>91</v>
-      </c>
-      <c r="T7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
       <c r="J8" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" t="s">
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
-      </c>
-      <c r="P9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9" t="s">
-        <v>77</v>
-      </c>
-      <c r="S9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" t="s">
         <v>79</v>
       </c>
-      <c r="S10" t="s">
+      <c r="O10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" t="s">
+        <v>103</v>
+      </c>
       <c r="N11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>103</v>
-      </c>
-      <c r="R11" t="s">
         <v>80</v>
       </c>
-      <c r="S11" t="s">
+      <c r="O11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" t="s">
+        <v>99</v>
+      </c>
       <c r="N12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>99</v>
-      </c>
-      <c r="R12" t="s">
         <v>81</v>
       </c>
-      <c r="S12" t="s">
+      <c r="O12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>62</v>
+      </c>
       <c r="N13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" t="s">
-        <v>62</v>
-      </c>
-      <c r="R13" t="s">
         <v>83</v>
       </c>
-      <c r="S13" t="s">
+      <c r="O13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>63</v>
+      </c>
       <c r="N14" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" t="s">
-        <v>63</v>
-      </c>
-      <c r="R14" t="s">
         <v>82</v>
       </c>
-      <c r="S14" t="s">
+      <c r="O14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P15" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
         <v>64</v>
       </c>
-      <c r="R15" t="s">
+      <c r="N15" t="s">
         <v>84</v>
       </c>
-      <c r="S15" t="s">
+      <c r="O15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P16" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="P17" t="s">
+    <row r="17" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K21" t="s">
+    <row r="21" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
         <v>42</v>
       </c>
-      <c r="N21" t="s">
+      <c r="J21" t="s">
         <v>40</v>
       </c>
-      <c r="P21" t="s">
+      <c r="L21" t="s">
         <v>39</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="M21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K22" t="s">
+    <row r="22" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
         <v>43</v>
       </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" t="s">
+        <v>70</v>
+      </c>
       <c r="N22" t="s">
-        <v>41</v>
-      </c>
-      <c r="P22" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>70</v>
-      </c>
-      <c r="R22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="P23" t="s">
+    <row r="23" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="L23" t="s">
         <v>61</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="M23" t="s">
         <v>71</v>
       </c>
-      <c r="R23" t="s">
+      <c r="N23" t="s">
         <v>106</v>
       </c>
     </row>

--- a/라이센스 리셀러 - db.xlsx
+++ b/라이센스 리셀러 - db.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>기능목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,15 +362,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>od_time_str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주문일시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -812,7 +804,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="O15" sqref="N15:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -903,7 +895,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -921,13 +913,13 @@
         <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N4" t="s">
         <v>56</v>
       </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P4" t="s">
         <v>51</v>
@@ -938,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -950,13 +942,13 @@
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N5" t="s">
         <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P5" t="s">
         <v>52</v>
@@ -976,13 +968,13 @@
         <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N6" t="s">
         <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P6" t="s">
         <v>55</v>
@@ -1005,7 +997,7 @@
         <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
         <v>53</v>
@@ -1019,7 +1011,7 @@
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
         <v>73</v>
@@ -1031,7 +1023,7 @@
         <v>59</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -1045,7 +1037,7 @@
         <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
         <v>68</v>
@@ -1071,7 +1063,7 @@
         <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1079,16 +1071,16 @@
         <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N11" t="s">
         <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1099,13 +1091,13 @@
         <v>67</v>
       </c>
       <c r="M12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N12" t="s">
         <v>81</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1119,7 +1111,7 @@
         <v>83</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1133,19 +1125,13 @@
         <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L15" t="s">
         <v>64</v>
       </c>
-      <c r="N15" t="s">
-        <v>84</v>
-      </c>
-      <c r="O15" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L16" t="s">
@@ -1185,7 +1171,7 @@
         <v>70</v>
       </c>
       <c r="N22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="7:14" x14ac:dyDescent="0.3">
@@ -1196,7 +1182,7 @@
         <v>71</v>
       </c>
       <c r="N23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/라이센스 리셀러 - db.xlsx
+++ b/라이센스 리셀러 - db.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bitnami\wampstack-7.4.29\apache2\htdocs\koi\license_reseller\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA747E41-2875-4F14-80A3-53C8949F94E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31620" windowHeight="14115"/>
+    <workbookView xWindow="7680" yWindow="1275" windowWidth="40635" windowHeight="20670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="105">
   <si>
     <t>기능목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +120,6 @@
   </si>
   <si>
     <t>od_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스타트업일 경우, 발주서에 금액 표기 X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +450,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -800,11 +797,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="N15:O15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -835,7 +832,7 @@
         <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>22</v>
@@ -858,13 +855,13 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -878,16 +875,16 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
         <v>47</v>
       </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -895,7 +892,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -910,19 +907,19 @@
         <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -930,54 +927,51 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L6" t="s">
         <v>44</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M6" t="s">
         <v>94</v>
       </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
         <v>92</v>
       </c>
-      <c r="P5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" t="s">
-        <v>93</v>
-      </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -985,22 +979,22 @@
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1008,25 +1002,25 @@
         <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
         <v>73</v>
       </c>
-      <c r="M8" t="s">
-        <v>74</v>
-      </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1034,19 +1028,19 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" t="s">
         <v>77</v>
-      </c>
-      <c r="O9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1054,135 +1048,135 @@
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" t="s">
         <v>100</v>
       </c>
-      <c r="M11" t="s">
-        <v>101</v>
-      </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="7:14" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="7:14" x14ac:dyDescent="0.3">
       <c r="L23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
